--- a/data/data_dictionaries/E3_data_dictionary.xlsx
+++ b/data/data_dictionaries/E3_data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcassan2/Documents/GitHub/Scramble_Music/data/data_dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CAF706-2F96-8840-B323-E191931DD271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1FCDD5-0FEA-054A-AF83-E8E9F22FDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="-4360" windowWidth="28040" windowHeight="16840" xr2:uid="{D6D332B1-F9F9-F742-B6A0-7DA5131E09A1}"/>
+    <workbookView xWindow="37280" yWindow="-4840" windowWidth="28040" windowHeight="16840" xr2:uid="{D6D332B1-F9F9-F742-B6A0-7DA5131E09A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Variable name</t>
   </si>
@@ -48,6 +48,90 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>exp_subject_id</t>
+  </si>
+  <si>
+    <t>Subject ID, assigned by Labvanced</t>
+  </si>
+  <si>
+    <t>Six digit integer</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>Whether or not participant was a musician</t>
+  </si>
+  <si>
+    <t>"Yes", "No"</t>
+  </si>
+  <si>
+    <t>stimulus_set</t>
+  </si>
+  <si>
+    <t>Which stimulus set was heard</t>
+  </si>
+  <si>
+    <t>1, 3, 4</t>
+  </si>
+  <si>
+    <t>scramble</t>
+  </si>
+  <si>
+    <t>Scramble condition</t>
+  </si>
+  <si>
+    <t>"1B", "2B", "8B", "Intact"</t>
+  </si>
+  <si>
+    <t>All dataset 3B participants heard set 1, 3A participants heard either set 3 or 4</t>
+  </si>
+  <si>
+    <t>mean_response_rate</t>
+  </si>
+  <si>
+    <t>`response_rate_by_sub.csv` only</t>
+  </si>
+  <si>
+    <t>Positive real number or 0</t>
+  </si>
+  <si>
+    <t>stim_num</t>
+  </si>
+  <si>
+    <t>Which number stimulus (within a condition)</t>
+  </si>
+  <si>
+    <t>Integer, 1-16</t>
+  </si>
+  <si>
+    <t>Set 1: 1 or 3 only, Sets 3 and 4: 1-4 Intact, 5-8 8B, 9-12 2B, 13-16 1B</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Timestamp of space press (in seconds)</t>
+  </si>
+  <si>
+    <t>Positive real number</t>
+  </si>
+  <si>
+    <t>Which processed data file?</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>`timestamps_filtered_long.csv` only</t>
+  </si>
+  <si>
+    <t>Excluded subjects with rates &gt;30 per minute</t>
+  </si>
+  <si>
+    <t>Response rate, averaged across trials in a condition (per minute)</t>
   </si>
 </sst>
 </file>
@@ -427,20 +511,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F75DCD-7E62-6C4B-B0EA-4226C3CA12AD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,10 +537,123 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>